--- a/Convert Postcode to LSOA.xlsx
+++ b/Convert Postcode to LSOA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,56 +47,13 @@
     <t xml:space="preserve">SW97HP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="24"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Instructions:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1: Extract the exemption code and postcode from your database for all the boroughs relevant properties
-2: Paste the two columns of data into the corresponding columns
+    <t xml:space="preserve">Instructions:
+1: Extract the exemption/discount code and postcode from your database for all the boroughs relevant properties
+2: Paste the two columns of data into the exemption column and Postcode column (Columns A and B)
 3: Double click on the square in the bottom right corner of the formula cell, to copy down the formulas in the LSOA table.
 4:Copy the columns in green and paste as values (LSOA_CODE, WARD_CODE, WARD_NAME)
-5: Delete the Postcode Column and the </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">red</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> reference column
+5: Delete the Postcode Column and the red reference column
 6: Save the file and email it back.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">class b</t>
@@ -127,7 +84,8 @@
   </si>
   <si>
     <t xml:space="preserve">Notes:
-The formula in the reference column removes all spaces from the postcode, this is in case there are formatting inconstancies in the way the postcodes are entered, which is relatively normal in large complex databases.</t>
+The formula in the reference column removes all spaces from the postcode, this is in case there are formatting inconstancies in the way the postcodes are entered, which is relatively normal in large complex databases.
+Columns A and B random example data. real data can just be pasted over the top</t>
   </si>
 </sst>
 </file>
@@ -138,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,7 +121,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,30 +132,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -276,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,6 +227,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,12 +239,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -386,13 +324,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.38"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -415,301 +361,373 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="e">
+      <c r="C2" s="5" t="e">
         <f aca="false">MATCH(SUBSTITUTE(B2, " ",""),LSOAdata!A:A,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="5" t="e">
+      <c r="D2" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!D"&amp;$C2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="5" t="e">
+      <c r="E2" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!C"&amp;$C2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="5" t="e">
+      <c r="F2" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!F"&amp;$C2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="e">
+      <c r="C3" s="5" t="e">
         <f aca="false">MATCH(SUBSTITUTE(B3, " ",""),LSOAdata!A:A,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="5" t="e">
+      <c r="D3" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!D"&amp;$C3)</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="5" t="e">
+      <c r="E3" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!C"&amp;$C3)</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="5" t="e">
+      <c r="F3" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!F"&amp;$C3)</f>
         <v>#N/A</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="e">
+      <c r="C4" s="5" t="e">
         <f aca="false">MATCH(SUBSTITUTE(B4, " ",""),LSOAdata!A:A,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D4" s="5" t="e">
+      <c r="D4" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!D"&amp;$C4)</f>
         <v>#N/A</v>
       </c>
-      <c r="E4" s="5" t="e">
+      <c r="E4" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!C"&amp;$C4)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="5" t="e">
+      <c r="F4" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!F"&amp;$C4)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="e">
+      <c r="C5" s="5" t="e">
         <f aca="false">MATCH(SUBSTITUTE(B5, " ",""),LSOAdata!A:A,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="5" t="e">
+      <c r="D5" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!D"&amp;$C5)</f>
         <v>#N/A</v>
       </c>
-      <c r="E5" s="5" t="e">
+      <c r="E5" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!C"&amp;$C5)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="5" t="e">
+      <c r="F5" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!F"&amp;$C5)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="e">
+      <c r="C6" s="5" t="e">
         <f aca="false">MATCH(SUBSTITUTE(B6, " ",""),LSOAdata!A:A,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D6" s="5" t="e">
+      <c r="D6" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!D"&amp;$C6)</f>
         <v>#N/A</v>
       </c>
-      <c r="E6" s="5" t="e">
+      <c r="E6" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!C"&amp;$C6)</f>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="5" t="e">
+      <c r="F6" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!F"&amp;$C6)</f>
         <v>#N/A</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="e">
+      <c r="C7" s="5" t="e">
         <f aca="false">MATCH(SUBSTITUTE(B7, " ",""),LSOAdata!A:A,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D7" s="5" t="e">
+      <c r="D7" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!D"&amp;$C7)</f>
         <v>#N/A</v>
       </c>
-      <c r="E7" s="5" t="e">
+      <c r="E7" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!C"&amp;$C7)</f>
         <v>#N/A</v>
       </c>
-      <c r="F7" s="5" t="e">
+      <c r="F7" s="6" t="e">
         <f aca="true">INDIRECT("LSOAdata!F"&amp;$C7)</f>
         <v>#N/A</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="7" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:R9"/>
-    <mergeCell ref="H12:Q15"/>
+    <mergeCell ref="H2:S11"/>
+    <mergeCell ref="H13:S18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -724,11 +742,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6844,8 +6862,8 @@
     <row r="6112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
